--- a/north_spring/Computer Experience.xlsx
+++ b/north_spring/Computer Experience.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Android</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
   </si>
   <si>
     <t>Linux (Ubuntu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>good</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +86,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -103,7 +99,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -391,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -422,7 +418,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
